--- a/results/dc_opf_results.xlsx
+++ b/results/dc_opf_results.xlsx
@@ -53210,7 +53210,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>12.13706666666667</v>
+        <v>154.2834209638064</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -53218,7 +53218,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12.13706666666667</v>
+        <v>154.2834209638064</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -53226,7 +53226,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12.13706666666667</v>
+        <v>154.2834209638064</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -53234,7 +53234,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12.13706666666667</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -53242,7 +53242,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>12.13706666666667</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -53250,7 +53250,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -53266,7 +53266,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>82.20446371923401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -53274,7 +53274,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>82.20446371923401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -53282,7 +53282,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -53290,7 +53290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -53298,7 +53298,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -53306,7 +53306,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -53314,7 +53314,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -53322,7 +53322,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -53330,7 +53330,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -53338,7 +53338,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>74.3204425809792</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -53346,7 +53346,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>74.3204425809792</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -53354,7 +53354,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>74.3204425809792</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -53362,7 +53362,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>84.06717654962027</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -53370,7 +53370,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>84.06717654962027</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -53378,7 +53378,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>84.06717654962027</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -53386,7 +53386,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -53402,7 +53402,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>381.9913625139448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -53410,7 +53410,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.920000000000001</v>
+        <v>8.355119855193971</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -53418,7 +53418,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.920000000000001</v>
+        <v>8.355119855193971</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -53426,7 +53426,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.920000000000001</v>
+        <v>8.355119855193971</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -53434,7 +53434,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7.920000000000001</v>
+        <v>8.355119855193971</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -53442,7 +53442,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7.920000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -53450,7 +53450,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7.920000000000001</v>
+        <v>42.4867126267576</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -53458,7 +53458,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7.920000000000001</v>
+        <v>42.4867126267576</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -53466,7 +53466,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7.920000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -53506,7 +53506,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>38.69787869444013</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -53514,7 +53514,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>38.69787869444013</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -53522,7 +53522,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>38.69787869444013</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -53530,7 +53530,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>69.36472348184201</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -53538,7 +53538,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>69.36472348184201</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -53546,7 +53546,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -53554,7 +53554,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -53562,7 +53562,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -53570,7 +53570,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>59.56</v>
+        <v>15.93777777777778</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -53578,7 +53578,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>59.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -53586,7 +53586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>42.4867126267576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -53594,7 +53594,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>42.4867126267576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -53602,7 +53602,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>76.688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -53610,7 +53610,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>76.688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -53618,7 +53618,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6.224</v>
+        <v>84.06717654962027</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -53626,7 +53626,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14.79876316617308</v>
+        <v>84.06717654962027</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -53634,7 +53634,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>14.79876316617308</v>
+        <v>84.06717654962027</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -53642,7 +53642,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>24.15392660480208</v>
+        <v>82.86666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -53650,7 +53650,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>24.15392660480208</v>
+        <v>82.86666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -53658,7 +53658,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>24.15392660480208</v>
+        <v>82.86666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -53666,7 +53666,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>24.15392660480208</v>
+        <v>10.95235339003595</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -53674,7 +53674,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>24.15392660480208</v>
+        <v>10.95235339003595</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -53682,7 +53682,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>10.95235339003595</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -53690,7 +53690,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>15.69041914282256</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -53698,7 +53698,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>15.69041914282256</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -53706,7 +53706,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>41.78985674329788</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -53714,7 +53714,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>42.82285714285715</v>
+        <v>41.78985674329788</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -53722,7 +53722,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>42.82285714285715</v>
+        <v>41.78985674329788</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -53730,7 +53730,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>42.82285714285715</v>
+        <v>74.3204425809792</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -53738,7 +53738,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>42.82285714285715</v>
+        <v>74.3204425809792</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -53746,7 +53746,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>42.82285714285715</v>
+        <v>74.3204425809792</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -53754,7 +53754,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>42.82285714285715</v>
+        <v>92.50051631032747</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -53762,7 +53762,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>42.82285714285715</v>
+        <v>92.50051631032747</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -53770,7 +53770,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>92.50051631032747</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -53794,7 +53794,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>68.5589198172844</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -53802,7 +53802,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>71.43400000000001</v>
+        <v>68.5589198172844</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -53810,7 +53810,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>71.43400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -53818,7 +53818,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>68.76000000000001</v>
+        <v>78.02514461690453</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -53826,7 +53826,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>68.76000000000001</v>
+        <v>78.02514461690453</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -53834,7 +53834,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>68.76000000000001</v>
+        <v>78.02514461690453</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -53842,7 +53842,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>68.76000000000001</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -53850,7 +53850,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>93.93678306976841</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -53858,7 +53858,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>93.93678306976841</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -53866,7 +53866,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>93.93678306976841</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -53874,7 +53874,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>93.93678306976841</v>
+        <v>97.12</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -53882,7 +53882,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>28.3308738331132</v>
+        <v>97.12</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -53890,7 +53890,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>28.3308738331132</v>
+        <v>97.12</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -53898,7 +53898,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>28.3308738331132</v>
+        <v>97.12</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -53906,7 +53906,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>28.3308738331132</v>
+        <v>97.12</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -53914,7 +53914,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>22.52800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -53922,7 +53922,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>22.52800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -53930,7 +53930,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>22.52800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -53938,7 +53938,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22.52800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -53946,7 +53946,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.52800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -53954,7 +53954,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>10.69688435945731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -53962,7 +53962,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>10.69688435945731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -53970,7 +53970,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10.69688435945731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -53978,7 +53978,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>10.69688435945731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -53986,7 +53986,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>10.69688435945731</v>
+        <v>31.69379813560924</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -53994,7 +53994,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>10.69688435945731</v>
+        <v>31.69379813560924</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -54002,7 +54002,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10.69688435945731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -54010,7 +54010,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>44.77846018460587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -54018,7 +54018,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>44.77846018460587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -54026,7 +54026,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>44.77846018460587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -54034,7 +54034,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>68.76000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -54042,7 +54042,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>68.76000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -54050,7 +54050,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>68.5589198172844</v>
+        <v>68.76000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -54058,7 +54058,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>68.5589198172844</v>
+        <v>68.76000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -54066,7 +54066,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>42.492</v>
+        <v>24.15392660480208</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -54074,7 +54074,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>42.492</v>
+        <v>24.15392660480208</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -54082,7 +54082,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>95.9809272257724</v>
+        <v>24.15392660480208</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -54090,7 +54090,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>95.9809272257724</v>
+        <v>24.15392660480208</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -54098,7 +54098,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>24.15392660480208</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -54106,7 +54106,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -54114,7 +54114,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>15.93777777777778</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -54122,7 +54122,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>15.93777777777778</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -54130,7 +54130,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>15.93777777777778</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -54138,7 +54138,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>15.93777777777778</v>
+        <v>12.90175545394511</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -54146,7 +54146,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>15.93777777777778</v>
+        <v>12.90175545394511</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -54154,7 +54154,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>15.93777777777778</v>
+        <v>12.90175545394511</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -54162,7 +54162,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>15.93777777777778</v>
+        <v>77.60000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -54170,7 +54170,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>15.93777777777778</v>
+        <v>77.60000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -54178,7 +54178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>15.93777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -54186,7 +54186,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>235.4459101411048</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -54194,7 +54194,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>235.4459101411048</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -54202,7 +54202,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>235.4459101411048</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -54210,7 +54210,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>23.81777777777777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -54218,7 +54218,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>23.81777777777777</v>
+        <v>71.43400000000001</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -54226,7 +54226,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>23.81777777777777</v>
+        <v>71.43400000000001</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -54234,7 +54234,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>178.2501798694704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -54242,7 +54242,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>178.2501798694704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -54250,7 +54250,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>178.2501798694704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -54258,7 +54258,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>15.46666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -54266,7 +54266,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>15.46666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -54274,7 +54274,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>15.46666666666667</v>
+        <v>18.02708709520913</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -54282,7 +54282,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>5.7472</v>
+        <v>18.02708709520913</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -54290,7 +54290,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>5.7472</v>
+        <v>18.02708709520913</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -54298,7 +54298,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>5.7472</v>
+        <v>18.02708709520913</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -54306,7 +54306,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>5.7472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -54314,7 +54314,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>426.377090521504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -54322,7 +54322,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>50.5439957809316</v>
+        <v>0.03378895321669537</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -54330,7 +54330,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>50.5439957809316</v>
+        <v>0.03378895321669537</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -54354,7 +54354,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>24.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -54362,7 +54362,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>24.52</v>
+        <v>67.98522622126588</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -54370,7 +54370,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>24.52</v>
+        <v>67.98522622126588</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -54378,7 +54378,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>24.52</v>
+        <v>67.98522622126588</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -54386,7 +54386,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>65.56151925150105</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -54394,7 +54394,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>65.56151925150105</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -54402,7 +54402,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -54410,7 +54410,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>92.50051631032747</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -54418,7 +54418,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>92.50051631032747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -54426,7 +54426,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>92.50051631032747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -54442,7 +54442,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>162.5730106097857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -54450,7 +54450,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>162.5730106097857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -54458,7 +54458,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>162.5730106097857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -54466,7 +54466,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>162.5730106097857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -54474,7 +54474,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>105.1533797292915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -54482,7 +54482,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>105.1533797292915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -54490,7 +54490,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>105.1533797292915</v>
+        <v>16.84394470755635</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -54498,7 +54498,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>16.84394470755635</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -54506,7 +54506,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>21.81085759549376</v>
+        <v>16.84394470755635</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -54514,7 +54514,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>21.81085759549376</v>
+        <v>213.6496788625336</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -54522,7 +54522,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>213.6496788625336</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -54530,7 +54530,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>60.12815725937434</v>
+        <v>93.93678306976841</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -54538,7 +54538,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>60.12815725937434</v>
+        <v>93.93678306976841</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -54546,7 +54546,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>60.12815725937434</v>
+        <v>93.93678306976841</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -54554,7 +54554,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>60.12815725937434</v>
+        <v>93.93678306976841</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -54562,7 +54562,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>60.12815725937434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -54570,7 +54570,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>60.12815725937434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -54578,7 +54578,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>148.7875207862732</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -54586,7 +54586,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>148.7875207862732</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -54594,7 +54594,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>60.12815725937434</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -54602,7 +54602,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>60.12815725937434</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -54610,7 +54610,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>102.9736852810385</v>
+        <v>60.12815725937434</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -54618,7 +54618,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>102.9736852810385</v>
+        <v>60.12815725937434</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -54626,7 +54626,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>60.12815725937434</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -54634,7 +54634,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>60.12815725937434</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -54642,7 +54642,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>31.17882544206916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -54650,7 +54650,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>31.17882544206916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -54658,7 +54658,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>9.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -54666,7 +54666,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>9.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -54674,7 +54674,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>9.56</v>
+        <v>28.3308738331132</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -54682,7 +54682,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>70.242</v>
+        <v>28.3308738331132</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -54690,7 +54690,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>70.242</v>
+        <v>28.3308738331132</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -54698,7 +54698,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>70.242</v>
+        <v>28.3308738331132</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -54706,7 +54706,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>70.242</v>
+        <v>23.81777777777777</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -54714,7 +54714,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>33.0141769856494</v>
+        <v>23.81777777777777</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -54722,7 +54722,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>33.0141769856494</v>
+        <v>23.81777777777777</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -54730,7 +54730,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>33.0141769856494</v>
+        <v>144.0398177724648</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -54738,7 +54738,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>33.0141769856494</v>
+        <v>144.0398177724648</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -54746,7 +54746,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>144.0398177724648</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -54754,7 +54754,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>104.52</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -54762,7 +54762,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>104.52</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -54770,7 +54770,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>-0.8070756708042073</v>
+        <v>74.42721014925147</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -54778,7 +54778,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.8070756708042073</v>
+        <v>74.42721014925147</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -54786,7 +54786,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>-0.8070756708042073</v>
+        <v>74.42721014925147</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -54794,7 +54794,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>-0.8070756708042073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -54802,7 +54802,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-0.8070756708042073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -54810,7 +54810,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>-0.8070756708042073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -54818,7 +54818,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>-0.8070756708042073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -54834,7 +54834,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>12.13706666666667</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -54842,7 +54842,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>12.13706666666667</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -54850,7 +54850,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>12.13706666666667</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -54858,7 +54858,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>144.0398177724648</v>
+        <v>12.13706666666667</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -54866,7 +54866,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>144.0398177724648</v>
+        <v>12.13706666666667</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -54874,7 +54874,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>144.0398177724648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -54890,7 +54890,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -54898,7 +54898,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>15.69041914282256</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -54906,7 +54906,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>15.69041914282256</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -54914,7 +54914,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -54922,7 +54922,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -54930,7 +54930,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-4.041468962735681</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -54938,7 +54938,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-4.041468962735681</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -54946,7 +54946,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>39.80775893980729</v>
+        <v>73.06666666666666</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -54954,7 +54954,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>39.80775893980729</v>
+        <v>73.06666666666666</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -54962,7 +54962,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>45.74</v>
+        <v>73.06666666666666</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -54970,7 +54970,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>45.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -54978,7 +54978,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>45.74</v>
+        <v>17.60773105273787</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -54986,7 +54986,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>45.74</v>
+        <v>17.60773105273787</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -54994,7 +54994,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>12.90175545394511</v>
+        <v>17.60773105273787</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -55002,7 +55002,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>12.90175545394511</v>
+        <v>17.60773105273787</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -55010,7 +55010,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>12.90175545394511</v>
+        <v>17.60773105273787</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -55018,7 +55018,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>17.60773105273787</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -55026,7 +55026,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>5.67906896311456</v>
+        <v>42.492</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -55034,7 +55034,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5.67906896311456</v>
+        <v>42.492</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -55042,76 +55042,76 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5.67906896311456</v>
+        <v>-4.041468962735681</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>-4.041468962735681</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>56.7293168603918</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -55119,463 +55119,463 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B362">
-        <v>121.3075045121908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B363">
-        <v>121.3075045121908</v>
+        <v>82.20446371923401</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B364">
-        <v>38.58990065858561</v>
+        <v>82.20446371923401</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B365">
-        <v>38.58990065858561</v>
+        <v>60.51200000000001</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B366">
-        <v>38.58990065858561</v>
+        <v>60.51200000000001</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B367">
-        <v>38.58990065858561</v>
+        <v>60.51200000000001</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B368">
-        <v>38.58990065858561</v>
+        <v>60.51200000000001</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B369">
-        <v>38.58990065858561</v>
+        <v>60.51200000000001</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B370">
-        <v>38.58990065858561</v>
+        <v>15.02319585385616</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B371">
-        <v>36.54274366753843</v>
+        <v>15.02319585385616</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B372">
-        <v>73.06666666666666</v>
+        <v>31.17882544206916</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B373">
-        <v>73.06666666666666</v>
+        <v>31.17882544206916</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B374">
-        <v>73.06666666666666</v>
+        <v>46.06460981184187</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B375">
-        <v>52.58233333333334</v>
+        <v>46.06460981184187</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B376">
-        <v>52.58233333333334</v>
+        <v>46.06460981184187</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B377">
-        <v>52.58233333333334</v>
+        <v>65.56151925150105</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B378">
-        <v>52.58233333333334</v>
+        <v>65.56151925150105</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B379">
-        <v>52.58233333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B380">
-        <v>52.58233333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B381">
-        <v>52.58233333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B382">
-        <v>52.58233333333334</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B387">
-        <v>32.4505321970522</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B388">
-        <v>32.4505321970522</v>
+        <v>-0.8070756708042073</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B389">
-        <v>24.4675191761817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B390">
-        <v>24.4675191761817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B391">
-        <v>24.4675191761817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B392">
-        <v>24.4675191761817</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B393">
-        <v>15.346</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B394">
-        <v>15.346</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B395">
-        <v>15.346</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B396">
-        <v>15.346</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>42.82285714285715</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>18.22914559368796</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>18.22914559368796</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B402">
-        <v>0</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B404">
-        <v>-8</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B405">
-        <v>-8</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B406">
-        <v>11.18857142857143</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B407">
-        <v>11.18857142857143</v>
+        <v>38.58990065858561</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B408">
-        <v>11.18857142857143</v>
+        <v>33.0141769856494</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B409">
-        <v>11.18857142857143</v>
+        <v>33.0141769856494</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B410">
-        <v>11.18857142857143</v>
+        <v>33.0141769856494</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B411">
-        <v>11.18857142857143</v>
+        <v>33.0141769856494</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B412">
-        <v>11.18857142857143</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B413">
-        <v>18.8002476020364</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B414">
-        <v>18.8002476020364</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>8.131698254192573</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -55583,7 +55583,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -55591,7 +55591,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -55599,31 +55599,31 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B422">
-        <v>46.06460981184187</v>
+        <v>5.67906896311456</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B423">
-        <v>46.06460981184187</v>
+        <v>5.67906896311456</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B424">
-        <v>46.06460981184187</v>
+        <v>5.67906896311456</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -55631,79 +55631,79 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B426">
-        <v>1.7952</v>
+        <v>13.06666666666667</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B427">
-        <v>1.7952</v>
+        <v>13.06666666666667</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B428">
-        <v>1.7952</v>
+        <v>13.06666666666667</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B429">
-        <v>1.7952</v>
+        <v>133.2375661026411</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="1">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B430">
-        <v>1.7952</v>
+        <v>133.2375661026411</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="1">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B431">
-        <v>58.56</v>
+        <v>133.2375661026411</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="1">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B432">
-        <v>58.56</v>
+        <v>53.47957493207947</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="1">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>53.47957493207947</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="1">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>53.47957493207947</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="1">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -55711,71 +55711,71 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="1">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B436">
-        <v>13.83733115423907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="1">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B437">
-        <v>13.83733115423907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="1">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B438">
-        <v>13.83733115423907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="1">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B439">
-        <v>108.5066666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="1">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B440">
-        <v>108.5066666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="1">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B441">
-        <v>108.5066666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B442">
-        <v>83.92093333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="1">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B443">
-        <v>83.92093333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="1">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -55783,7 +55783,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="1">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -55791,23 +55791,23 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="1">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="1">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -55815,7 +55815,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -55823,15 +55823,15 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="1">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>26.26875430585556</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B451">
         <v>26.26875430585556</v>
@@ -55839,175 +55839,175 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="1">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B452">
-        <v>26.26875430585556</v>
+        <v>12.41129050494387</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B453">
-        <v>28.95</v>
+        <v>12.41129050494387</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B454">
-        <v>28.95</v>
+        <v>12.41129050494387</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B455">
-        <v>28.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B456">
-        <v>28.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B457">
-        <v>28.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B458">
-        <v>28.95</v>
+        <v>15.346</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B459">
-        <v>28.95</v>
+        <v>15.346</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B460">
-        <v>28.95</v>
+        <v>15.346</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B461">
-        <v>0</v>
+        <v>15.346</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="1">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>108.5066666666667</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="1">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B463">
-        <v>64.79024098975</v>
+        <v>108.5066666666667</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="1">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B464">
-        <v>64.79024098975</v>
+        <v>108.5066666666667</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="1">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B465">
-        <v>18.64576056651008</v>
+        <v>122.5333333333333</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="1">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B466">
-        <v>18.64576056651008</v>
+        <v>122.5333333333333</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="1">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B467">
-        <v>18.64576056651008</v>
+        <v>122.5333333333333</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="1">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B468">
-        <v>102.7128390901136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="1">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B469">
-        <v>102.7128390901136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="1">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B470">
-        <v>102.7128390901136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="1">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B471">
-        <v>77.60000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="1">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B472">
-        <v>77.60000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="1">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -56015,7 +56015,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="1">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -56023,31 +56023,31 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="1">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>36.54274366753843</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="1">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B476">
-        <v>75.606033235334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="1">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B477">
-        <v>75.606033235334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="1">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -56055,143 +56055,143 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="1">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>91.89333333333335</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>91.89333333333335</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="1">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B481">
-        <v>134.416</v>
+        <v>91.89333333333335</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="1">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B482">
-        <v>134.416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="1">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B483">
-        <v>134.416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="1">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B484">
-        <v>134.416</v>
+        <v>5.7472</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="1">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B485">
-        <v>134.416</v>
+        <v>5.7472</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>5.7472</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="1">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B487">
-        <v>10.95235339003595</v>
+        <v>5.7472</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="1">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B488">
-        <v>10.95235339003595</v>
+        <v>121.3075045121908</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="1">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B489">
-        <v>10.95235339003595</v>
+        <v>121.3075045121908</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="1">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B490">
-        <v>41.78985674329788</v>
+        <v>426.377090521504</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="1">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B491">
-        <v>41.78985674329788</v>
+        <v>1.7952</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="1">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B492">
-        <v>41.78985674329788</v>
+        <v>1.7952</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="1">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B493">
-        <v>235.4459101411048</v>
+        <v>1.7952</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="1">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B494">
-        <v>235.4459101411048</v>
+        <v>1.7952</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="1">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B495">
-        <v>235.4459101411048</v>
+        <v>1.7952</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="1">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -56199,7 +56199,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="1">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -56207,23 +56207,23 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="1">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B498">
-        <v>147.556616778768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B499">
-        <v>147.556616778768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -56231,7 +56231,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="1">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -56239,7 +56239,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="1">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -56247,7 +56247,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="1">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -56255,191 +56255,191 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="1">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B504">
-        <v>7.76</v>
+        <v>4.768376065989535</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="1">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B505">
-        <v>7.76</v>
+        <v>4.768376065989535</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="1">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>4.768376065989535</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="1">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B507">
-        <v>0</v>
+        <v>4.768376065989535</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="1">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B508">
-        <v>122.5333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="1">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B509">
-        <v>122.5333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="1">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B510">
-        <v>122.5333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="1">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B511">
-        <v>4.768376065989535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="1">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B512">
-        <v>4.768376065989535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="1">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B513">
-        <v>4.768376065989535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="1">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B514">
-        <v>4.768376065989535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="1">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B515">
-        <v>213.6496788625336</v>
+        <v>77.38666666666667</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="1">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B516">
-        <v>213.6496788625336</v>
+        <v>77.38666666666667</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="1">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B517">
-        <v>66.3962359593308</v>
+        <v>77.38666666666667</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="1">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B518">
-        <v>66.3962359593308</v>
+        <v>78.55712384338561</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="1">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B519">
-        <v>53.53435070242702</v>
+        <v>78.55712384338561</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="1">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B520">
-        <v>53.53435070242702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="1">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B521">
-        <v>54.69559500980528</v>
+        <v>9.995113452323148</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="1">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B522">
-        <v>97.12</v>
+        <v>9.995113452323148</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="1">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B523">
-        <v>97.12</v>
+        <v>9.995113452323148</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="1">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B524">
-        <v>97.12</v>
+        <v>66.3962359593308</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="1">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B525">
-        <v>97.12</v>
+        <v>66.3962359593308</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="1">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B526">
-        <v>97.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="1">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B527">
         <v>0</v>
@@ -56447,7 +56447,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="1">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B528">
         <v>0</v>
@@ -56455,7 +56455,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="1">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B529">
         <v>0</v>
@@ -56463,7 +56463,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="1">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B530">
         <v>0</v>
@@ -56471,7 +56471,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="1">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B531">
         <v>0</v>
@@ -56479,7 +56479,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="1">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B532">
         <v>0</v>
@@ -56487,7 +56487,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="1">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B533">
         <v>0</v>
@@ -56495,23 +56495,23 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="1">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>236.708</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="1">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B535">
-        <v>0</v>
+        <v>236.708</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="1">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B536">
         <v>0</v>
@@ -56519,255 +56519,255 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="1">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B537">
-        <v>-6.2544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="1">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B538">
-        <v>-6.2544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="1">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B539">
-        <v>-6.2544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="1">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B540">
-        <v>0</v>
+        <v>54.07676784237961</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="1">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B541">
-        <v>0</v>
+        <v>54.07676784237961</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="1">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B542">
-        <v>133.2375661026411</v>
+        <v>54.07676784237961</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="1">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B543">
-        <v>133.2375661026411</v>
+        <v>54.07676784237961</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="1">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B544">
-        <v>133.2375661026411</v>
+        <v>381.9913625139448</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="1">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B545">
-        <v>74.33235555555557</v>
+        <v>51.464</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="1">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B546">
-        <v>74.33235555555557</v>
+        <v>51.464</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="1">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B547">
-        <v>74.33235555555557</v>
+        <v>51.464</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="1">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B548">
-        <v>15.02319585385616</v>
+        <v>51.464</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="1">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B549">
-        <v>15.02319585385616</v>
+        <v>78.33361805695574</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="1">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B550">
-        <v>31.69379813560924</v>
+        <v>78.33361805695574</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="1">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B551">
-        <v>31.69379813560924</v>
+        <v>78.33361805695574</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="1">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B552">
-        <v>0</v>
+        <v>21.81085759549376</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="1">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B553">
-        <v>0</v>
+        <v>21.81085759549376</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="1">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B554">
-        <v>0</v>
+        <v>15.46666666666667</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="1">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B555">
-        <v>0</v>
+        <v>15.46666666666667</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="1">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B556">
-        <v>51.464</v>
+        <v>15.46666666666667</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="1">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B557">
-        <v>51.464</v>
+        <v>53.53435070242702</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="1">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B558">
-        <v>51.464</v>
+        <v>53.53435070242702</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="1">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B559">
-        <v>51.464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="1">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B560">
-        <v>41.71389778669872</v>
+        <v>123.903790697022</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="1">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B561">
-        <v>41.71389778669872</v>
+        <v>123.903790697022</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="1">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B562">
-        <v>41.71389778669872</v>
+        <v>123.903790697022</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="1">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B563">
-        <v>41.71389778669872</v>
+        <v>123.903790697022</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="1">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B564">
-        <v>41.71389778669872</v>
+        <v>38.10629758080534</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="1">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B565">
-        <v>41.71389778669872</v>
+        <v>38.10629758080534</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="1">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B566">
-        <v>41.71389778669872</v>
+        <v>38.10629758080534</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="1">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B567">
-        <v>41.71389778669872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="1">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B568">
         <v>0</v>
@@ -56775,39 +56775,39 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="1">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B569">
-        <v>79.10778748988538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="1">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B570">
-        <v>79.10778748988538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="1">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B571">
-        <v>79.10778748988538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="1">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B572">
-        <v>79.10778748988538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="1">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B573">
         <v>0</v>
@@ -56815,135 +56815,135 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="1">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B574">
-        <v>9.386237692343334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="1">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B575">
-        <v>9.386237692343334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="1">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B576">
-        <v>9.386237692343334</v>
+        <v>5.869761674181841</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="1">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B577">
-        <v>9.386237692343334</v>
+        <v>5.869761674181841</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="1">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B578">
-        <v>9.386237692343334</v>
+        <v>5.869761674181841</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="1">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B579">
-        <v>9.386237692343334</v>
+        <v>5.869761674181841</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="1">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B580">
-        <v>0</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="1">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="1">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="1">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B583">
-        <v>0</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="1">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B584">
-        <v>96</v>
+        <v>18.64576056651008</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="1">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B585">
-        <v>96</v>
+        <v>18.64576056651008</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="1">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B586">
-        <v>16.84394470755635</v>
+        <v>18.64576056651008</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="1">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B587">
-        <v>16.84394470755635</v>
+        <v>74.33235555555557</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="1">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B588">
-        <v>16.84394470755635</v>
+        <v>74.33235555555557</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="1">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B589">
-        <v>0</v>
+        <v>74.33235555555557</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="1">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -56951,247 +56951,247 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="1">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B591">
-        <v>0</v>
+        <v>55.70273202985322</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="1">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B592">
-        <v>0</v>
+        <v>55.70273202985322</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="1">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B593">
-        <v>0</v>
+        <v>55.70273202985322</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="1">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B594">
-        <v>60.51200000000001</v>
+        <v>55.70273202985322</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="1">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B595">
-        <v>60.51200000000001</v>
+        <v>55.70273202985322</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="1">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B596">
-        <v>60.51200000000001</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="1">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B597">
-        <v>60.51200000000001</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="1">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B598">
-        <v>60.51200000000001</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="1">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B599">
-        <v>17.60773105273787</v>
+        <v>9.386237692343334</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="1">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B600">
-        <v>17.60773105273787</v>
+        <v>9.386237692343334</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="1">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B601">
-        <v>17.60773105273787</v>
+        <v>9.386237692343334</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="1">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B602">
-        <v>17.60773105273787</v>
+        <v>9.386237692343334</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="1">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B603">
-        <v>17.60773105273787</v>
+        <v>9.386237692343334</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="1">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B604">
-        <v>17.60773105273787</v>
+        <v>9.386237692343334</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="1">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B605">
-        <v>0</v>
+        <v>76.688</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="1">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B606">
-        <v>5.869761674181841</v>
+        <v>76.688</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="1">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B607">
-        <v>5.869761674181841</v>
+        <v>19.07350426395814</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="1">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B608">
-        <v>5.869761674181841</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="1">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B609">
-        <v>5.869761674181841</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="1">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B610">
-        <v>0</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="1">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B611">
-        <v>0</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="1">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B612">
-        <v>0</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B613">
-        <v>0</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="1">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B614">
-        <v>0</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="1">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B615">
-        <v>154.2834209638064</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="1">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B616">
-        <v>154.2834209638064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="1">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B617">
-        <v>154.2834209638064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="1">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B618">
-        <v>37.44</v>
+        <v>-6.2544</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="1">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B619">
-        <v>37.44</v>
+        <v>-6.2544</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="1">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B620">
-        <v>37.44</v>
+        <v>-6.2544</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="1">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -57199,31 +57199,31 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="1">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B622">
-        <v>67.98522622126588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="1">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B623">
-        <v>67.98522622126588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="1">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B624">
-        <v>67.98522622126588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="1">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B625">
         <v>0</v>
@@ -57231,7 +57231,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="1">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B626">
         <v>0</v>
@@ -57239,7 +57239,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="1">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B627">
         <v>0</v>
@@ -57247,7 +57247,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="1">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -57255,127 +57255,127 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="1">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B629">
-        <v>19.07350426395814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="1">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B630">
-        <v>116.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="1">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B631">
-        <v>116.24</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="1">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B632">
-        <v>116.24</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="1">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B633">
-        <v>8.355119855193971</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="1">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B634">
-        <v>8.355119855193971</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="1">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B635">
-        <v>8.355119855193971</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="1">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B636">
-        <v>8.355119855193971</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="1">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B637">
-        <v>0</v>
+        <v>10.69688435945731</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="1">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B638">
-        <v>0</v>
+        <v>69.36472348184201</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="1">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B639">
-        <v>78.02514461690453</v>
+        <v>69.36472348184201</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="1">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B640">
-        <v>78.02514461690453</v>
+        <v>70.242</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="1">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B641">
-        <v>78.02514461690453</v>
+        <v>70.242</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="1">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B642">
-        <v>0</v>
+        <v>70.242</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="1">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B643">
-        <v>0</v>
+        <v>70.242</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="1">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B644">
         <v>0</v>
@@ -57383,194 +57383,194 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="1">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B645">
-        <v>236.708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="1">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B646">
-        <v>236.708</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="1">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B647">
-        <v>239.6650595249296</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="1">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B648">
-        <v>239.6650595249296</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="1">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B649">
-        <v>0</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="1">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B650">
-        <v>0</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="1">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B651">
-        <v>0</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="1">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B652">
-        <v>0</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="1">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B653">
-        <v>0</v>
+        <v>9.69074950663305</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="1">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B654">
-        <v>0</v>
+        <v>22.52800000000001</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="1">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B655">
-        <v>0</v>
+        <v>22.52800000000001</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="1">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B656">
-        <v>0</v>
+        <v>22.52800000000001</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="1">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B657">
-        <v>0</v>
+        <v>22.52800000000001</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="1">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B658">
-        <v>28.2928</v>
+        <v>22.52800000000001</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="1">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B659">
-        <v>28.2928</v>
+        <v>24.1013802533368</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="1">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B660">
-        <v>28.2928</v>
+        <v>24.1013802533368</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="1">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B661">
-        <v>28.2928</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="1">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B662">
-        <v>28.2928</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="1">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B663">
-        <v>124.1377778830296</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="1">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B664">
-        <v>124.1377778830296</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="1">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B665">
-        <v>124.1377778830296</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="1">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B666">
-        <v>85.91400000000002</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="1">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B667">
-        <v>85.91400000000002</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="1">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B668">
-        <v>85.91400000000002</v>
+        <v>52.58233333333334</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -57578,7 +57578,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>85.91400000000002</v>
+        <v>14.79876316617308</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -57586,7 +57586,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>104.52</v>
+        <v>14.79876316617308</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -57594,68 +57594,68 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>104.52</v>
+        <v>205.0165840202808</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="1">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B672">
-        <v>0</v>
+        <v>205.0165840202808</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="1">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B673">
-        <v>74.42721014925147</v>
+        <v>95.9809272257724</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="1">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B674">
-        <v>74.42721014925147</v>
+        <v>95.9809272257724</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="1">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B675">
-        <v>74.42721014925147</v>
+        <v>124.1377778830296</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="1">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B676">
-        <v>0</v>
+        <v>124.1377778830296</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="1">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B677">
-        <v>0</v>
+        <v>124.1377778830296</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="1">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B678">
-        <v>0</v>
+        <v>121.582204621386</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="1">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B679">
         <v>121.582204621386</v>
@@ -57663,7 +57663,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="1">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B680">
         <v>121.582204621386</v>
@@ -57671,15 +57671,15 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="1">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B681">
-        <v>121.582204621386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="1">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B682">
         <v>0</v>
@@ -57687,87 +57687,87 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="1">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B683">
-        <v>177.7899756903807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="1">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B684">
-        <v>177.7899756903807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="1">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B685">
-        <v>0.03378895321669537</v>
+        <v>91.29446738571015</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="1">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B686">
-        <v>0.03378895321669537</v>
+        <v>91.29446738571015</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="1">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B687">
-        <v>24.1013802533368</v>
+        <v>91.29446738571015</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="1">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B688">
-        <v>24.1013802533368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="1">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B689">
-        <v>13.1</v>
+        <v>50.5439957809316</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="1">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B690">
-        <v>13.1</v>
+        <v>50.5439957809316</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="1">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B691">
-        <v>13.1</v>
+        <v>50.42400000000001</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="1">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B692">
-        <v>13.1</v>
+        <v>50.42400000000001</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="1">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B693">
         <v>50.42400000000001</v>
@@ -57775,7 +57775,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="1">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B694">
         <v>50.42400000000001</v>
@@ -57783,23 +57783,23 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="1">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B695">
-        <v>50.42400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="1">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B696">
-        <v>50.42400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="1">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B697">
         <v>0</v>
@@ -57807,303 +57807,303 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="1">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B698">
-        <v>0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="1">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B699">
-        <v>0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="1">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B700">
-        <v>53.47957493207947</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="1">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B701">
-        <v>53.47957493207947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="1">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B702">
-        <v>53.47957493207947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="1">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B703">
-        <v>36.1627287923646</v>
+        <v>75.606033235334</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="1">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B704">
-        <v>36.1627287923646</v>
+        <v>75.606033235334</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="1">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B705">
-        <v>36.1627287923646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="1">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B706">
-        <v>36.1627287923646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="1">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B707">
-        <v>7.133888747144572</v>
+        <v>239.6650595249296</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="1">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B708">
-        <v>7.133888747144572</v>
+        <v>239.6650595249296</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="1">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B709">
-        <v>7.133888747144572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="1">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B710">
-        <v>7.133888747144572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="1">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B711">
-        <v>7.133888747144572</v>
+        <v>44.77846018460587</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="1">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B712">
-        <v>7.133888747144572</v>
+        <v>44.77846018460587</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="1">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B713">
-        <v>7.133888747144572</v>
+        <v>44.77846018460587</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="1">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B714">
-        <v>0</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="1">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B715">
-        <v>0</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="1">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B716">
-        <v>0</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="1">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B717">
-        <v>0</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="1">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B718">
-        <v>0</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="1">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B719">
-        <v>55.70273202985322</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="1">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B720">
-        <v>55.70273202985322</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="1">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B721">
-        <v>55.70273202985322</v>
+        <v>9.173333333333334</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="1">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B722">
-        <v>55.70273202985322</v>
+        <v>59.56</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="1">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B723">
-        <v>55.70273202985322</v>
+        <v>59.56</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="1">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B724">
-        <v>16.15527952697194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B725">
-        <v>16.15527952697194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="1">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B726">
-        <v>16.15527952697194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="1">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B727">
-        <v>16.15527952697194</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B728">
-        <v>186.0857177194426</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B729">
-        <v>186.0857177194426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="1">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B730">
-        <v>186.0857177194426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="1">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B731">
-        <v>205.0165840202808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="1">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B732">
-        <v>205.0165840202808</v>
+        <v>36.144</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="1">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B733">
-        <v>0</v>
+        <v>36.144</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="1">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B734">
-        <v>0</v>
+        <v>36.144</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="1">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B735">
         <v>36.144</v>
@@ -58111,7 +58111,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="1">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B736">
         <v>36.144</v>
@@ -58119,191 +58119,191 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="1">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B737">
-        <v>36.144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="1">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B738">
-        <v>36.144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="1">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B739">
-        <v>36.144</v>
+        <v>94.9088836821344</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="1">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B740">
-        <v>0</v>
+        <v>94.9088836821344</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B741">
-        <v>0</v>
+        <v>94.9088836821344</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B742">
-        <v>91.89333333333335</v>
+        <v>-15.088</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B743">
-        <v>91.89333333333335</v>
+        <v>-15.088</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="1">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B744">
-        <v>91.89333333333335</v>
+        <v>-15.088</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="1">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B745">
-        <v>0</v>
+        <v>-15.088</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="1">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B746">
-        <v>0</v>
+        <v>-15.088</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="1">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B747">
-        <v>0</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="1">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B748">
-        <v>0</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="1">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B749">
-        <v>0</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="1">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B750">
-        <v>0</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="1">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B751">
-        <v>0</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="1">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B752">
-        <v>0</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B753">
-        <v>1.368</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="1">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B754">
-        <v>1.368</v>
+        <v>0.5321600000000001</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B755">
-        <v>1.368</v>
+        <v>23.968</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B756">
-        <v>1.368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="1">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B757">
-        <v>1.368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="1">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B758">
-        <v>1.368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="1">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B759">
-        <v>1.368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="1">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B760">
         <v>0</v>
@@ -58311,7 +58311,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="1">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B761">
         <v>0</v>
@@ -58319,151 +58319,151 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="1">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B762">
-        <v>9.995113452323148</v>
+        <v>64.79024098975</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="1">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B763">
-        <v>9.995113452323148</v>
+        <v>64.79024098975</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="1">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B764">
-        <v>9.995113452323148</v>
+        <v>39.34876859189421</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="1">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B765">
-        <v>13.06666666666667</v>
+        <v>39.34876859189421</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="1">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B766">
-        <v>13.06666666666667</v>
+        <v>39.34876859189421</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="1">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B767">
-        <v>13.06666666666667</v>
+        <v>39.34876859189421</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="1">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B768">
-        <v>23.968</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="1">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B769">
-        <v>94.9088836821344</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="1">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B770">
-        <v>94.9088836821344</v>
+        <v>54.69559500980528</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="1">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B771">
-        <v>94.9088836821344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="1">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B772">
-        <v>54.07676784237961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="1">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B773">
-        <v>54.07676784237961</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="1">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B774">
-        <v>54.07676784237961</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="1">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B775">
-        <v>54.07676784237961</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="1">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B776">
-        <v>13.96009236075035</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="1">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B777">
-        <v>13.96009236075035</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="1">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B778">
-        <v>13.96009236075035</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="1">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B779">
-        <v>0</v>
+        <v>11.18857142857143</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="1">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B780">
         <v>0</v>
@@ -58471,26 +58471,26 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="1">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B781">
-        <v>331.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="1">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B782">
-        <v>77.38666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="1">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B783">
-        <v>77.38666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -58498,7 +58498,7 @@
         <v>786</v>
       </c>
       <c r="B784">
-        <v>77.38666666666667</v>
+        <v>13.96009236075035</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -58506,7 +58506,7 @@
         <v>787</v>
       </c>
       <c r="B785">
-        <v>-15.088</v>
+        <v>13.96009236075035</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -58514,7 +58514,7 @@
         <v>788</v>
       </c>
       <c r="B786">
-        <v>-15.088</v>
+        <v>13.96009236075035</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -58522,7 +58522,7 @@
         <v>789</v>
       </c>
       <c r="B787">
-        <v>-15.088</v>
+        <v>38.69787869444013</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -58530,7 +58530,7 @@
         <v>790</v>
       </c>
       <c r="B788">
-        <v>-15.088</v>
+        <v>38.69787869444013</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -58538,7 +58538,7 @@
         <v>791</v>
       </c>
       <c r="B789">
-        <v>-15.088</v>
+        <v>38.69787869444013</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -58546,7 +58546,7 @@
         <v>792</v>
       </c>
       <c r="B790">
-        <v>78.55712384338561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -58554,7 +58554,7 @@
         <v>793</v>
       </c>
       <c r="B791">
-        <v>78.55712384338561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -58570,7 +58570,7 @@
         <v>795</v>
       </c>
       <c r="B793">
-        <v>9.69074950663305</v>
+        <v>79.10778748988538</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -58578,7 +58578,7 @@
         <v>796</v>
       </c>
       <c r="B794">
-        <v>9.69074950663305</v>
+        <v>79.10778748988538</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -58586,7 +58586,7 @@
         <v>797</v>
       </c>
       <c r="B795">
-        <v>9.69074950663305</v>
+        <v>79.10778748988538</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -58594,7 +58594,7 @@
         <v>798</v>
       </c>
       <c r="B796">
-        <v>9.69074950663305</v>
+        <v>79.10778748988538</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -58602,7 +58602,7 @@
         <v>799</v>
       </c>
       <c r="B797">
-        <v>9.69074950663305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -58610,7 +58610,7 @@
         <v>800</v>
       </c>
       <c r="B798">
-        <v>9.69074950663305</v>
+        <v>58.56</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -58618,7 +58618,7 @@
         <v>801</v>
       </c>
       <c r="B799">
-        <v>9.69074950663305</v>
+        <v>58.56</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -58626,7 +58626,7 @@
         <v>802</v>
       </c>
       <c r="B800">
-        <v>9.69074950663305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -58650,7 +58650,7 @@
         <v>805</v>
       </c>
       <c r="B803">
-        <v>0</v>
+        <v>32.4505321970522</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -58658,7 +58658,7 @@
         <v>806</v>
       </c>
       <c r="B804">
-        <v>0</v>
+        <v>32.4505321970522</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -58674,7 +58674,7 @@
         <v>808</v>
       </c>
       <c r="B806">
-        <v>0</v>
+        <v>13.83733115423907</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -58682,7 +58682,7 @@
         <v>809</v>
       </c>
       <c r="B807">
-        <v>0</v>
+        <v>13.83733115423907</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -58690,7 +58690,7 @@
         <v>810</v>
       </c>
       <c r="B808">
-        <v>82.86666666666667</v>
+        <v>13.83733115423907</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -58698,7 +58698,7 @@
         <v>811</v>
       </c>
       <c r="B809">
-        <v>82.86666666666667</v>
+        <v>16.15527952697194</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -58706,7 +58706,7 @@
         <v>812</v>
       </c>
       <c r="B810">
-        <v>82.86666666666667</v>
+        <v>16.15527952697194</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -58714,7 +58714,7 @@
         <v>813</v>
       </c>
       <c r="B811">
-        <v>0</v>
+        <v>16.15527952697194</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -58722,7 +58722,7 @@
         <v>814</v>
       </c>
       <c r="B812">
-        <v>0</v>
+        <v>16.15527952697194</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -58738,7 +58738,7 @@
         <v>816</v>
       </c>
       <c r="B814">
-        <v>0</v>
+        <v>60.93578947368422</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -58746,7 +58746,7 @@
         <v>817</v>
       </c>
       <c r="B815">
-        <v>31.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -58754,7 +58754,7 @@
         <v>818</v>
       </c>
       <c r="B816">
-        <v>31.64</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -58762,7 +58762,7 @@
         <v>819</v>
       </c>
       <c r="B817">
-        <v>31.64</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -58770,7 +58770,7 @@
         <v>820</v>
       </c>
       <c r="B818">
-        <v>31.64</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -58778,7 +58778,7 @@
         <v>821</v>
       </c>
       <c r="B819">
-        <v>60.93578947368422</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -58786,7 +58786,7 @@
         <v>822</v>
       </c>
       <c r="B820">
-        <v>0</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -58794,7 +58794,7 @@
         <v>823</v>
       </c>
       <c r="B821">
-        <v>0</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -58802,7 +58802,7 @@
         <v>824</v>
       </c>
       <c r="B822">
-        <v>0</v>
+        <v>7.133888747144572</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -58810,7 +58810,7 @@
         <v>825</v>
       </c>
       <c r="B823">
-        <v>0</v>
+        <v>162.5730106097857</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -58818,7 +58818,7 @@
         <v>826</v>
       </c>
       <c r="B824">
-        <v>0</v>
+        <v>162.5730106097857</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -58826,7 +58826,7 @@
         <v>827</v>
       </c>
       <c r="B825">
-        <v>39.34876859189421</v>
+        <v>162.5730106097857</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -58834,7 +58834,7 @@
         <v>828</v>
       </c>
       <c r="B826">
-        <v>39.34876859189421</v>
+        <v>162.5730106097857</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -58842,7 +58842,7 @@
         <v>829</v>
       </c>
       <c r="B827">
-        <v>39.34876859189421</v>
+        <v>24.4675191761817</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -58850,7 +58850,7 @@
         <v>830</v>
       </c>
       <c r="B828">
-        <v>39.34876859189421</v>
+        <v>24.4675191761817</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -58858,7 +58858,7 @@
         <v>831</v>
       </c>
       <c r="B829">
-        <v>0</v>
+        <v>24.4675191761817</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -58866,7 +58866,7 @@
         <v>832</v>
       </c>
       <c r="B830">
-        <v>0</v>
+        <v>24.4675191761817</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -58874,7 +58874,7 @@
         <v>833</v>
       </c>
       <c r="B831">
-        <v>57.71527298387706</v>
+        <v>186.0857177194426</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -58882,7 +58882,7 @@
         <v>834</v>
       </c>
       <c r="B832">
-        <v>57.71527298387706</v>
+        <v>186.0857177194426</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -58890,7 +58890,7 @@
         <v>835</v>
       </c>
       <c r="B833">
-        <v>57.71527298387706</v>
+        <v>186.0857177194426</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -58898,7 +58898,7 @@
         <v>836</v>
       </c>
       <c r="B834">
-        <v>0.5321600000000001</v>
+        <v>28.2928</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -58906,7 +58906,7 @@
         <v>837</v>
       </c>
       <c r="B835">
-        <v>0.5321600000000001</v>
+        <v>28.2928</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -58914,7 +58914,7 @@
         <v>838</v>
       </c>
       <c r="B836">
-        <v>0.5321600000000001</v>
+        <v>28.2928</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -58922,7 +58922,7 @@
         <v>839</v>
       </c>
       <c r="B837">
-        <v>0.5321600000000001</v>
+        <v>28.2928</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -58930,7 +58930,7 @@
         <v>840</v>
       </c>
       <c r="B838">
-        <v>0.5321600000000001</v>
+        <v>28.2928</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -58938,7 +58938,7 @@
         <v>841</v>
       </c>
       <c r="B839">
-        <v>0.5321600000000001</v>
+        <v>102.7128390901136</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -58946,7 +58946,7 @@
         <v>842</v>
       </c>
       <c r="B840">
-        <v>0.5321600000000001</v>
+        <v>102.7128390901136</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -58954,7 +58954,7 @@
         <v>843</v>
       </c>
       <c r="B841">
-        <v>0.5321600000000001</v>
+        <v>102.7128390901136</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -58962,7 +58962,7 @@
         <v>844</v>
       </c>
       <c r="B842">
-        <v>8.131698254192573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -58970,7 +58970,7 @@
         <v>845</v>
       </c>
       <c r="B843">
-        <v>8.131698254192573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -58978,7 +58978,7 @@
         <v>846</v>
       </c>
       <c r="B844">
-        <v>8.131698254192573</v>
+        <v>178.2501798694704</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -58986,7 +58986,7 @@
         <v>847</v>
       </c>
       <c r="B845">
-        <v>8.131698254192573</v>
+        <v>178.2501798694704</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -58994,7 +58994,7 @@
         <v>848</v>
       </c>
       <c r="B846">
-        <v>8.131698254192573</v>
+        <v>178.2501798694704</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -59002,7 +59002,7 @@
         <v>849</v>
       </c>
       <c r="B847">
-        <v>8.131698254192573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -59010,7 +59010,7 @@
         <v>850</v>
       </c>
       <c r="B848">
-        <v>8.131698254192573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -59026,7 +59026,7 @@
         <v>852</v>
       </c>
       <c r="B850">
-        <v>0</v>
+        <v>39.80775893980729</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -59034,7 +59034,7 @@
         <v>853</v>
       </c>
       <c r="B851">
-        <v>0</v>
+        <v>39.80775893980729</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -59042,7 +59042,7 @@
         <v>854</v>
       </c>
       <c r="B852">
-        <v>38.10629758080534</v>
+        <v>6.224</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -59050,7 +59050,7 @@
         <v>855</v>
       </c>
       <c r="B853">
-        <v>38.10629758080534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -59058,7 +59058,7 @@
         <v>856</v>
       </c>
       <c r="B854">
-        <v>38.10629758080534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -59066,7 +59066,7 @@
         <v>857</v>
       </c>
       <c r="B855">
-        <v>9.173333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -59074,7 +59074,7 @@
         <v>858</v>
       </c>
       <c r="B856">
-        <v>9.173333333333334</v>
+        <v>18.8002476020364</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -59082,7 +59082,7 @@
         <v>859</v>
       </c>
       <c r="B857">
-        <v>9.173333333333334</v>
+        <v>18.8002476020364</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -59090,7 +59090,7 @@
         <v>860</v>
       </c>
       <c r="B858">
-        <v>9.173333333333334</v>
+        <v>36.1627287923646</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -59098,7 +59098,7 @@
         <v>861</v>
       </c>
       <c r="B859">
-        <v>9.173333333333334</v>
+        <v>36.1627287923646</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -59106,7 +59106,7 @@
         <v>862</v>
       </c>
       <c r="B860">
-        <v>9.173333333333334</v>
+        <v>36.1627287923646</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -59114,7 +59114,7 @@
         <v>863</v>
       </c>
       <c r="B861">
-        <v>9.173333333333334</v>
+        <v>36.1627287923646</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -59122,7 +59122,7 @@
         <v>864</v>
       </c>
       <c r="B862">
-        <v>9.173333333333334</v>
+        <v>134.416</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -59130,7 +59130,7 @@
         <v>865</v>
       </c>
       <c r="B863">
-        <v>0</v>
+        <v>134.416</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -59138,7 +59138,7 @@
         <v>866</v>
       </c>
       <c r="B864">
-        <v>0</v>
+        <v>134.416</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -59146,7 +59146,7 @@
         <v>867</v>
       </c>
       <c r="B865">
-        <v>0</v>
+        <v>134.416</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -59154,7 +59154,7 @@
         <v>868</v>
       </c>
       <c r="B866">
-        <v>0</v>
+        <v>134.416</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -59170,7 +59170,7 @@
         <v>870</v>
       </c>
       <c r="B868">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -59178,7 +59178,7 @@
         <v>871</v>
       </c>
       <c r="B869">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -59186,7 +59186,7 @@
         <v>872</v>
       </c>
       <c r="B870">
-        <v>26.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -59194,7 +59194,7 @@
         <v>873</v>
       </c>
       <c r="B871">
-        <v>26.4</v>
+        <v>83.92093333333332</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -59202,7 +59202,7 @@
         <v>874</v>
       </c>
       <c r="B872">
-        <v>0</v>
+        <v>83.92093333333332</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -59210,7 +59210,7 @@
         <v>875</v>
       </c>
       <c r="B873">
-        <v>123.903790697022</v>
+        <v>147.556616778768</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -59218,7 +59218,7 @@
         <v>876</v>
       </c>
       <c r="B874">
-        <v>123.903790697022</v>
+        <v>147.556616778768</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -59226,7 +59226,7 @@
         <v>877</v>
       </c>
       <c r="B875">
-        <v>123.903790697022</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -59234,7 +59234,7 @@
         <v>878</v>
       </c>
       <c r="B876">
-        <v>123.903790697022</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -59242,7 +59242,7 @@
         <v>879</v>
       </c>
       <c r="B877">
-        <v>1.6</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -59250,7 +59250,7 @@
         <v>880</v>
       </c>
       <c r="B878">
-        <v>1.6</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -59258,7 +59258,7 @@
         <v>881</v>
       </c>
       <c r="B879">
-        <v>0</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -59266,7 +59266,7 @@
         <v>882</v>
       </c>
       <c r="B880">
-        <v>78.33361805695574</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -59274,7 +59274,7 @@
         <v>883</v>
       </c>
       <c r="B881">
-        <v>78.33361805695574</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -59282,7 +59282,7 @@
         <v>884</v>
       </c>
       <c r="B882">
-        <v>78.33361805695574</v>
+        <v>41.71389778669872</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -59290,7 +59290,7 @@
         <v>885</v>
       </c>
       <c r="B883">
-        <v>8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -59298,7 +59298,7 @@
         <v>886</v>
       </c>
       <c r="B884">
-        <v>8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -59306,7 +59306,7 @@
         <v>887</v>
       </c>
       <c r="B885">
-        <v>0</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -59314,7 +59314,7 @@
         <v>888</v>
       </c>
       <c r="B886">
-        <v>0</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -59322,7 +59322,7 @@
         <v>889</v>
       </c>
       <c r="B887">
-        <v>12.41129050494387</v>
+        <v>105.1533797292915</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -59330,7 +59330,7 @@
         <v>890</v>
       </c>
       <c r="B888">
-        <v>12.41129050494387</v>
+        <v>105.1533797292915</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -59338,7 +59338,7 @@
         <v>891</v>
       </c>
       <c r="B889">
-        <v>12.41129050494387</v>
+        <v>105.1533797292915</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -59346,7 +59346,7 @@
         <v>892</v>
       </c>
       <c r="B890">
-        <v>91.29446738571015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -59354,7 +59354,7 @@
         <v>893</v>
       </c>
       <c r="B891">
-        <v>91.29446738571015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -59362,7 +59362,7 @@
         <v>894</v>
       </c>
       <c r="B892">
-        <v>91.29446738571015</v>
+        <v>331.52</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -59370,7 +59370,7 @@
         <v>895</v>
       </c>
       <c r="B893">
-        <v>18.22914559368796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -59378,7 +59378,7 @@
         <v>896</v>
       </c>
       <c r="B894">
-        <v>18.22914559368796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -59386,7 +59386,7 @@
         <v>897</v>
       </c>
       <c r="B895">
-        <v>56.7293168603918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -59394,7 +59394,7 @@
         <v>898</v>
       </c>
       <c r="B896">
-        <v>56.7293168603918</v>
+        <v>102.9736852810385</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -59402,7 +59402,7 @@
         <v>899</v>
       </c>
       <c r="B897">
-        <v>56.7293168603918</v>
+        <v>102.9736852810385</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -59410,7 +59410,7 @@
         <v>900</v>
       </c>
       <c r="B898">
-        <v>56.7293168603918</v>
+        <v>57.71527298387706</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -59418,7 +59418,7 @@
         <v>901</v>
       </c>
       <c r="B899">
-        <v>56.7293168603918</v>
+        <v>57.71527298387706</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -59426,7 +59426,7 @@
         <v>902</v>
       </c>
       <c r="B900">
-        <v>56.7293168603918</v>
+        <v>57.71527298387706</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -59434,7 +59434,7 @@
         <v>903</v>
       </c>
       <c r="B901">
-        <v>56.7293168603918</v>
+        <v>45.74</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -59442,7 +59442,7 @@
         <v>904</v>
       </c>
       <c r="B902">
-        <v>148.7875207862732</v>
+        <v>45.74</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -59450,7 +59450,7 @@
         <v>905</v>
       </c>
       <c r="B903">
-        <v>148.7875207862732</v>
+        <v>45.74</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -59458,7 +59458,7 @@
         <v>906</v>
       </c>
       <c r="B904">
-        <v>0</v>
+        <v>45.74</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -59466,7 +59466,7 @@
         <v>907</v>
       </c>
       <c r="B905">
-        <v>0</v>
+        <v>85.91400000000002</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -59474,7 +59474,7 @@
         <v>908</v>
       </c>
       <c r="B906">
-        <v>0</v>
+        <v>85.91400000000002</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -59482,7 +59482,7 @@
         <v>909</v>
       </c>
       <c r="B907">
-        <v>18.02708709520913</v>
+        <v>85.91400000000002</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -59490,7 +59490,7 @@
         <v>910</v>
       </c>
       <c r="B908">
-        <v>18.02708709520913</v>
+        <v>85.91400000000002</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -59498,7 +59498,7 @@
         <v>911</v>
       </c>
       <c r="B909">
-        <v>18.02708709520913</v>
+        <v>177.7899756903807</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -59506,7 +59506,7 @@
         <v>912</v>
       </c>
       <c r="B910">
-        <v>18.02708709520913</v>
+        <v>177.7899756903807</v>
       </c>
     </row>
   </sheetData>
